--- a/docs/launch kernel/RmIoctl.xlsx
+++ b/docs/launch kernel/RmIoctl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\计算隔离\逆向工程\open-gpu-kernel-modules-535.104.05\docs\launch kernel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C56B9E9-A192-4B36-B4E6-1950D3AA8B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36EECE0-6CCD-4336-912F-92D7668560AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16755" yWindow="-16200" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="-11205" windowWidth="16800" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.3"/>
